--- a/data/trans_bre/P19C01-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P19C01-Clase-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,83; 12,14</t>
+          <t>-3,6; 11,41</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,47; 17,16</t>
+          <t>1,72; 17,64</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,66; 9,74</t>
+          <t>-6,29; 9,21</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,95; 4,69</t>
+          <t>-6,23; 5,13</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-6,82; 36,67</t>
+          <t>-9,02; 33,59</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,6; 52,89</t>
+          <t>4,47; 53,38</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-10,43; 20,27</t>
+          <t>-11,42; 18,93</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-9,68; 7,27</t>
+          <t>-8,87; 7,93</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 14,66</t>
+          <t>-0,88; 14,45</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,27; 16,97</t>
+          <t>0,33; 16,41</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 15,41</t>
+          <t>0,28; 15,45</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-3,79; 9,24</t>
+          <t>-4,17; 8,35</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 54,28</t>
+          <t>-1,67; 54,76</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,04; 50,8</t>
+          <t>0,5; 49,67</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 36,38</t>
+          <t>0,14; 36,69</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-5,46; 14,85</t>
+          <t>-6,11; 13,22</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 17,26</t>
+          <t>-0,7; 17,22</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 13,64</t>
+          <t>-0,96; 13,53</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-13,64; 5,05</t>
+          <t>-12,73; 6,39</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,05; 45,47</t>
+          <t>-3,99; 46,02</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,54; 69,43</t>
+          <t>-2,31; 69,19</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,78; 57,72</t>
+          <t>-3,41; 56,31</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-34,6; 14,33</t>
+          <t>-32,0; 18,01</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-5,41; 278,78</t>
+          <t>-6,72; 386,09</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,11; 13,57</t>
+          <t>4,08; 13,88</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,94; 16,36</t>
+          <t>7,48; 16,19</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 8,06</t>
+          <t>-1,89; 8,14</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-28,08; 10,07</t>
+          <t>-25,59; 10,14</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>15,5; 59,81</t>
+          <t>15,48; 61,11</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>27,89; 73,79</t>
+          <t>28,51; 75,53</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-6,26; 23,28</t>
+          <t>-4,75; 25,02</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-51,62; 19,8</t>
+          <t>-48,72; 19,85</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,67; 7,9</t>
+          <t>-6,7; 7,79</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 10,35</t>
+          <t>-0,29; 10,69</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,53; 13,94</t>
+          <t>1,0; 13,94</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,89; 18,86</t>
+          <t>-2,53; 18,05</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-19,91; 34,26</t>
+          <t>-19,97; 33,84</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 59,07</t>
+          <t>-1,64; 60,83</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,28; 51,07</t>
+          <t>2,93; 51,89</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-6,02; 43,52</t>
+          <t>-5,6; 41,1</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-25,47; -11,88</t>
+          <t>-26,28; -11,29</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-27,08; -11,74</t>
+          <t>-26,13; -10,78</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-17,72; -3,75</t>
+          <t>-18,22; -3,19</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-19,16; 4,41</t>
+          <t>-18,26; 4,66</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-51,27; -30,67</t>
+          <t>-51,92; -29,13</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-47,22; -26,29</t>
+          <t>-46,08; -23,79</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-29,56; -7,42</t>
+          <t>-29,98; -6,79</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-25,54; 7,75</t>
+          <t>-24,16; 8,53</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 4,25</t>
+          <t>-1,16; 4,06</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,37; 7,22</t>
+          <t>2,38; 7,25</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,09; 5,58</t>
+          <t>0,27; 5,57</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-5,86; 13,84</t>
+          <t>-5,76; 14,95</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,9; 14,78</t>
+          <t>-3,84; 14,24</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>7,79; 26,16</t>
+          <t>7,62; 25,9</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,22; 14,28</t>
+          <t>0,65; 14,21</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-10,35; 30,56</t>
+          <t>-9,99; 33,36</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P19C01-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P19C01-Clase-trans_bre.xlsx
@@ -1110,7 +1110,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
